--- a/BLL/Resources/PSK__Template_v1_4.xlsx
+++ b/BLL/Resources/PSK__Template_v1_4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17988" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17988"/>
   </bookViews>
   <sheets>
     <sheet name="Common" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="41">
   <si>
     <t>SiteID</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>StructureHeight</t>
-  </si>
-  <si>
-    <t>InstallationType</t>
   </si>
   <si>
     <t>BSC</t>
@@ -313,16 +310,16 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -607,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B20"/>
+  <dimension ref="A2:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -729,12 +726,6 @@
       </c>
       <c r="B19" s="8"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -745,7 +736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
@@ -755,54 +746,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
+      <c r="A1" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
     </row>
     <row r="2" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="16">
+        <v>20</v>
+      </c>
+      <c r="B2" s="18">
         <v>1</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18">
         <v>2</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16">
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18">
         <v>3</v>
       </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
     </row>
     <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="14"/>
@@ -822,7 +813,7 @@
     </row>
     <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -842,7 +833,7 @@
     </row>
     <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="14"/>
@@ -862,7 +853,7 @@
     </row>
     <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
@@ -882,7 +873,7 @@
     </row>
     <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2">
         <v>900</v>
@@ -932,7 +923,7 @@
     </row>
     <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -952,7 +943,7 @@
     </row>
     <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -972,7 +963,7 @@
     </row>
     <row r="10" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -992,7 +983,7 @@
     </row>
     <row r="11" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1012,7 +1003,7 @@
     </row>
     <row r="12" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1032,7 +1023,7 @@
     </row>
     <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1052,7 +1043,7 @@
     </row>
     <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -1107,54 +1098,54 @@
       <c r="P16" s="4"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
+      <c r="A17" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
     </row>
     <row r="18" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="16">
+        <v>20</v>
+      </c>
+      <c r="B18" s="18">
         <v>1</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16">
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18">
         <v>2</v>
       </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16">
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18">
         <v>3</v>
       </c>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
     </row>
     <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="14"/>
@@ -1174,7 +1165,7 @@
     </row>
     <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -1194,7 +1185,7 @@
     </row>
     <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="14"/>
@@ -1214,7 +1205,7 @@
     </row>
     <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="14"/>
@@ -1234,7 +1225,7 @@
     </row>
     <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2">
         <v>900</v>
@@ -1284,7 +1275,7 @@
     </row>
     <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1304,7 +1295,7 @@
     </row>
     <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1324,7 +1315,7 @@
     </row>
     <row r="26" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1344,7 +1335,7 @@
     </row>
     <row r="27" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1364,7 +1355,7 @@
     </row>
     <row r="28" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1384,7 +1375,7 @@
     </row>
     <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1404,7 +1395,7 @@
     </row>
     <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -1459,54 +1450,54 @@
       <c r="P32" s="4"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
+      <c r="A33" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
     </row>
     <row r="34" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="16">
+        <v>20</v>
+      </c>
+      <c r="B34" s="18">
         <v>1</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16">
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18">
         <v>2</v>
       </c>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16">
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18">
         <v>3</v>
       </c>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
     </row>
     <row r="35" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="14"/>
@@ -1526,7 +1517,7 @@
     </row>
     <row r="36" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -1546,7 +1537,7 @@
     </row>
     <row r="37" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="14"/>
@@ -1566,7 +1557,7 @@
     </row>
     <row r="38" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="14"/>
@@ -1586,7 +1577,7 @@
     </row>
     <row r="39" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B39" s="2">
         <v>900</v>
@@ -1636,7 +1627,7 @@
     </row>
     <row r="40" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1656,7 +1647,7 @@
     </row>
     <row r="41" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1676,7 +1667,7 @@
     </row>
     <row r="42" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1696,7 +1687,7 @@
     </row>
     <row r="43" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1716,7 +1707,7 @@
     </row>
     <row r="44" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1736,7 +1727,7 @@
     </row>
     <row r="45" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -1756,7 +1747,7 @@
     </row>
     <row r="46" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
@@ -1811,54 +1802,54 @@
       <c r="P48" s="4"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="18"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="18"/>
-      <c r="O49" s="18"/>
-      <c r="P49" s="18"/>
+      <c r="A49" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
     </row>
     <row r="50" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B50" s="16">
+        <v>20</v>
+      </c>
+      <c r="B50" s="18">
         <v>1</v>
       </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16">
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18">
         <v>2</v>
       </c>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16">
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18">
         <v>3</v>
       </c>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="18"/>
     </row>
     <row r="51" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B51" s="13"/>
       <c r="C51" s="14"/>
@@ -1878,7 +1869,7 @@
     </row>
     <row r="52" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
@@ -1898,7 +1889,7 @@
     </row>
     <row r="53" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B53" s="13"/>
       <c r="C53" s="14"/>
@@ -1918,7 +1909,7 @@
     </row>
     <row r="54" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
@@ -1938,7 +1929,7 @@
     </row>
     <row r="55" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B55" s="2">
         <v>900</v>
@@ -1988,7 +1979,7 @@
     </row>
     <row r="56" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2008,7 +1999,7 @@
     </row>
     <row r="57" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2028,7 +2019,7 @@
     </row>
     <row r="58" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2048,7 +2039,7 @@
     </row>
     <row r="59" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2068,7 +2059,7 @@
     </row>
     <row r="60" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2088,7 +2079,7 @@
     </row>
     <row r="61" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -2108,7 +2099,7 @@
     </row>
     <row r="62" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B62" s="15"/>
       <c r="C62" s="15"/>
@@ -2127,54 +2118,54 @@
       <c r="P62" s="15"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A64" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18"/>
-      <c r="K64" s="18"/>
-      <c r="L64" s="18"/>
-      <c r="M64" s="18"/>
-      <c r="N64" s="18"/>
-      <c r="O64" s="18"/>
-      <c r="P64" s="18"/>
+      <c r="A64" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
     </row>
     <row r="65" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B65" s="16">
+        <v>20</v>
+      </c>
+      <c r="B65" s="18">
         <v>1</v>
       </c>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16">
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18">
         <v>2</v>
       </c>
-      <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="16"/>
-      <c r="K65" s="16"/>
-      <c r="L65" s="16">
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="18">
         <v>3</v>
       </c>
-      <c r="M65" s="16"/>
-      <c r="N65" s="16"/>
-      <c r="O65" s="16"/>
-      <c r="P65" s="16"/>
+      <c r="M65" s="18"/>
+      <c r="N65" s="18"/>
+      <c r="O65" s="18"/>
+      <c r="P65" s="18"/>
     </row>
     <row r="66" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B66" s="13"/>
       <c r="C66" s="14"/>
@@ -2194,7 +2185,7 @@
     </row>
     <row r="67" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
@@ -2214,7 +2205,7 @@
     </row>
     <row r="68" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B68" s="13"/>
       <c r="C68" s="14"/>
@@ -2234,7 +2225,7 @@
     </row>
     <row r="69" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B69" s="13"/>
       <c r="C69" s="14"/>
@@ -2254,7 +2245,7 @@
     </row>
     <row r="70" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B70" s="2">
         <v>900</v>
@@ -2304,7 +2295,7 @@
     </row>
     <row r="71" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2324,7 +2315,7 @@
     </row>
     <row r="72" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2344,7 +2335,7 @@
     </row>
     <row r="73" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2364,7 +2355,7 @@
     </row>
     <row r="74" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2384,7 +2375,7 @@
     </row>
     <row r="75" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2404,7 +2395,7 @@
     </row>
     <row r="76" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2424,7 +2415,7 @@
     </row>
     <row r="77" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
@@ -2479,54 +2470,54 @@
       <c r="P79" s="4"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A80" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="18"/>
-      <c r="L80" s="18"/>
-      <c r="M80" s="18"/>
-      <c r="N80" s="18"/>
-      <c r="O80" s="18"/>
-      <c r="P80" s="18"/>
+      <c r="A80" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="17"/>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
     </row>
     <row r="81" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B81" s="16">
+        <v>20</v>
+      </c>
+      <c r="B81" s="18">
         <v>1</v>
       </c>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="16">
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18">
         <v>2</v>
       </c>
-      <c r="H81" s="16"/>
-      <c r="I81" s="16"/>
-      <c r="J81" s="16"/>
-      <c r="K81" s="16"/>
-      <c r="L81" s="16">
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="18"/>
+      <c r="L81" s="18">
         <v>3</v>
       </c>
-      <c r="M81" s="16"/>
-      <c r="N81" s="16"/>
-      <c r="O81" s="16"/>
-      <c r="P81" s="16"/>
+      <c r="M81" s="18"/>
+      <c r="N81" s="18"/>
+      <c r="O81" s="18"/>
+      <c r="P81" s="18"/>
     </row>
     <row r="82" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B82" s="13"/>
       <c r="C82" s="14"/>
@@ -2546,7 +2537,7 @@
     </row>
     <row r="83" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
@@ -2566,7 +2557,7 @@
     </row>
     <row r="84" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B84" s="13"/>
       <c r="C84" s="14"/>
@@ -2586,7 +2577,7 @@
     </row>
     <row r="85" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B85" s="13"/>
       <c r="C85" s="14"/>
@@ -2606,7 +2597,7 @@
     </row>
     <row r="86" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B86" s="2">
         <v>900</v>
@@ -2656,7 +2647,7 @@
     </row>
     <row r="87" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -2676,7 +2667,7 @@
     </row>
     <row r="88" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -2696,7 +2687,7 @@
     </row>
     <row r="89" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -2716,7 +2707,7 @@
     </row>
     <row r="90" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -2736,7 +2727,7 @@
     </row>
     <row r="91" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -2756,7 +2747,7 @@
     </row>
     <row r="92" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -2776,7 +2767,7 @@
     </row>
     <row r="93" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B93" s="15"/>
       <c r="C93" s="15"/>
@@ -2831,54 +2822,54 @@
       <c r="P95" s="4"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A96" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B96" s="18"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="18"/>
-      <c r="E96" s="18"/>
-      <c r="F96" s="18"/>
-      <c r="G96" s="18"/>
-      <c r="H96" s="18"/>
-      <c r="I96" s="18"/>
-      <c r="J96" s="18"/>
-      <c r="K96" s="18"/>
-      <c r="L96" s="18"/>
-      <c r="M96" s="18"/>
-      <c r="N96" s="18"/>
-      <c r="O96" s="18"/>
-      <c r="P96" s="18"/>
+      <c r="A96" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B96" s="17"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="17"/>
+      <c r="J96" s="17"/>
+      <c r="K96" s="17"/>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
     </row>
     <row r="97" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B97" s="16">
+        <v>20</v>
+      </c>
+      <c r="B97" s="18">
         <v>1</v>
       </c>
-      <c r="C97" s="16"/>
-      <c r="D97" s="16"/>
-      <c r="E97" s="16"/>
-      <c r="F97" s="16"/>
-      <c r="G97" s="16">
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18">
         <v>2</v>
       </c>
-      <c r="H97" s="16"/>
-      <c r="I97" s="16"/>
-      <c r="J97" s="16"/>
-      <c r="K97" s="16"/>
-      <c r="L97" s="16">
+      <c r="H97" s="18"/>
+      <c r="I97" s="18"/>
+      <c r="J97" s="18"/>
+      <c r="K97" s="18"/>
+      <c r="L97" s="18">
         <v>3</v>
       </c>
-      <c r="M97" s="16"/>
-      <c r="N97" s="16"/>
-      <c r="O97" s="16"/>
-      <c r="P97" s="16"/>
+      <c r="M97" s="18"/>
+      <c r="N97" s="18"/>
+      <c r="O97" s="18"/>
+      <c r="P97" s="18"/>
     </row>
     <row r="98" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B98" s="13"/>
       <c r="C98" s="14"/>
@@ -2898,7 +2889,7 @@
     </row>
     <row r="99" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
@@ -2918,7 +2909,7 @@
     </row>
     <row r="100" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B100" s="13"/>
       <c r="C100" s="14"/>
@@ -2938,7 +2929,7 @@
     </row>
     <row r="101" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B101" s="13"/>
       <c r="C101" s="14"/>
@@ -2958,7 +2949,7 @@
     </row>
     <row r="102" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B102" s="2">
         <v>900</v>
@@ -3008,7 +2999,7 @@
     </row>
     <row r="103" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -3028,7 +3019,7 @@
     </row>
     <row r="104" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -3048,7 +3039,7 @@
     </row>
     <row r="105" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -3068,7 +3059,7 @@
     </row>
     <row r="106" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -3088,7 +3079,7 @@
     </row>
     <row r="107" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -3108,7 +3099,7 @@
     </row>
     <row r="108" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -3128,7 +3119,7 @@
     </row>
     <row r="109" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B109" s="15"/>
       <c r="C109" s="15"/>
@@ -3183,54 +3174,54 @@
       <c r="P111" s="4"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A112" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B112" s="18"/>
-      <c r="C112" s="18"/>
-      <c r="D112" s="18"/>
-      <c r="E112" s="18"/>
-      <c r="F112" s="18"/>
-      <c r="G112" s="18"/>
-      <c r="H112" s="18"/>
-      <c r="I112" s="18"/>
-      <c r="J112" s="18"/>
-      <c r="K112" s="18"/>
-      <c r="L112" s="18"/>
-      <c r="M112" s="18"/>
-      <c r="N112" s="18"/>
-      <c r="O112" s="18"/>
-      <c r="P112" s="18"/>
+      <c r="A112" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B112" s="17"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="17"/>
+      <c r="I112" s="17"/>
+      <c r="J112" s="17"/>
+      <c r="K112" s="17"/>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="17"/>
+      <c r="P112" s="17"/>
     </row>
     <row r="113" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B113" s="16">
+        <v>20</v>
+      </c>
+      <c r="B113" s="18">
         <v>1</v>
       </c>
-      <c r="C113" s="16"/>
-      <c r="D113" s="16"/>
-      <c r="E113" s="16"/>
-      <c r="F113" s="16"/>
-      <c r="G113" s="16">
+      <c r="C113" s="18"/>
+      <c r="D113" s="18"/>
+      <c r="E113" s="18"/>
+      <c r="F113" s="18"/>
+      <c r="G113" s="18">
         <v>2</v>
       </c>
-      <c r="H113" s="16"/>
-      <c r="I113" s="16"/>
-      <c r="J113" s="16"/>
-      <c r="K113" s="16"/>
-      <c r="L113" s="16">
+      <c r="H113" s="18"/>
+      <c r="I113" s="18"/>
+      <c r="J113" s="18"/>
+      <c r="K113" s="18"/>
+      <c r="L113" s="18">
         <v>3</v>
       </c>
-      <c r="M113" s="16"/>
-      <c r="N113" s="16"/>
-      <c r="O113" s="16"/>
-      <c r="P113" s="16"/>
+      <c r="M113" s="18"/>
+      <c r="N113" s="18"/>
+      <c r="O113" s="18"/>
+      <c r="P113" s="18"/>
     </row>
     <row r="114" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B114" s="13"/>
       <c r="C114" s="14"/>
@@ -3250,7 +3241,7 @@
     </row>
     <row r="115" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B115" s="13"/>
       <c r="C115" s="13"/>
@@ -3270,7 +3261,7 @@
     </row>
     <row r="116" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B116" s="13"/>
       <c r="C116" s="14"/>
@@ -3290,7 +3281,7 @@
     </row>
     <row r="117" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B117" s="13"/>
       <c r="C117" s="14"/>
@@ -3310,7 +3301,7 @@
     </row>
     <row r="118" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B118" s="2">
         <v>900</v>
@@ -3360,7 +3351,7 @@
     </row>
     <row r="119" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -3380,7 +3371,7 @@
     </row>
     <row r="120" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -3400,7 +3391,7 @@
     </row>
     <row r="121" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -3420,7 +3411,7 @@
     </row>
     <row r="122" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -3440,7 +3431,7 @@
     </row>
     <row r="123" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -3460,7 +3451,7 @@
     </row>
     <row r="124" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -3480,7 +3471,7 @@
     </row>
     <row r="125" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B125" s="15"/>
       <c r="C125" s="15"/>
@@ -3499,54 +3490,54 @@
       <c r="P125" s="15"/>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A127" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B127" s="18"/>
-      <c r="C127" s="18"/>
-      <c r="D127" s="18"/>
-      <c r="E127" s="18"/>
-      <c r="F127" s="18"/>
-      <c r="G127" s="18"/>
-      <c r="H127" s="18"/>
-      <c r="I127" s="18"/>
-      <c r="J127" s="18"/>
-      <c r="K127" s="18"/>
-      <c r="L127" s="18"/>
-      <c r="M127" s="18"/>
-      <c r="N127" s="18"/>
-      <c r="O127" s="18"/>
-      <c r="P127" s="18"/>
+      <c r="A127" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B127" s="17"/>
+      <c r="C127" s="17"/>
+      <c r="D127" s="17"/>
+      <c r="E127" s="17"/>
+      <c r="F127" s="17"/>
+      <c r="G127" s="17"/>
+      <c r="H127" s="17"/>
+      <c r="I127" s="17"/>
+      <c r="J127" s="17"/>
+      <c r="K127" s="17"/>
+      <c r="L127" s="17"/>
+      <c r="M127" s="17"/>
+      <c r="N127" s="17"/>
+      <c r="O127" s="17"/>
+      <c r="P127" s="17"/>
     </row>
     <row r="128" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B128" s="16">
+        <v>20</v>
+      </c>
+      <c r="B128" s="18">
         <v>1</v>
       </c>
-      <c r="C128" s="16"/>
-      <c r="D128" s="16"/>
-      <c r="E128" s="16"/>
-      <c r="F128" s="16"/>
-      <c r="G128" s="16">
+      <c r="C128" s="18"/>
+      <c r="D128" s="18"/>
+      <c r="E128" s="18"/>
+      <c r="F128" s="18"/>
+      <c r="G128" s="18">
         <v>2</v>
       </c>
-      <c r="H128" s="16"/>
-      <c r="I128" s="16"/>
-      <c r="J128" s="16"/>
-      <c r="K128" s="16"/>
-      <c r="L128" s="16">
+      <c r="H128" s="18"/>
+      <c r="I128" s="18"/>
+      <c r="J128" s="18"/>
+      <c r="K128" s="18"/>
+      <c r="L128" s="18">
         <v>3</v>
       </c>
-      <c r="M128" s="16"/>
-      <c r="N128" s="16"/>
-      <c r="O128" s="16"/>
-      <c r="P128" s="16"/>
+      <c r="M128" s="18"/>
+      <c r="N128" s="18"/>
+      <c r="O128" s="18"/>
+      <c r="P128" s="18"/>
     </row>
     <row r="129" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B129" s="13"/>
       <c r="C129" s="14"/>
@@ -3566,7 +3557,7 @@
     </row>
     <row r="130" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B130" s="13"/>
       <c r="C130" s="13"/>
@@ -3586,7 +3577,7 @@
     </row>
     <row r="131" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B131" s="13"/>
       <c r="C131" s="14"/>
@@ -3606,7 +3597,7 @@
     </row>
     <row r="132" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B132" s="13"/>
       <c r="C132" s="14"/>
@@ -3626,7 +3617,7 @@
     </row>
     <row r="133" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B133" s="2">
         <v>900</v>
@@ -3676,7 +3667,7 @@
     </row>
     <row r="134" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -3696,7 +3687,7 @@
     </row>
     <row r="135" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -3716,7 +3707,7 @@
     </row>
     <row r="136" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -3736,7 +3727,7 @@
     </row>
     <row r="137" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -3756,7 +3747,7 @@
     </row>
     <row r="138" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -3776,7 +3767,7 @@
     </row>
     <row r="139" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -3796,7 +3787,7 @@
     </row>
     <row r="140" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B140" s="15"/>
       <c r="C140" s="15"/>
@@ -3816,76 +3807,47 @@
     </row>
   </sheetData>
   <mergeCells count="135">
-    <mergeCell ref="B132:F132"/>
-    <mergeCell ref="G132:K132"/>
-    <mergeCell ref="L132:P132"/>
-    <mergeCell ref="B140:P140"/>
-    <mergeCell ref="B129:P129"/>
-    <mergeCell ref="B130:F130"/>
-    <mergeCell ref="G130:K130"/>
-    <mergeCell ref="L130:P130"/>
-    <mergeCell ref="B131:F131"/>
-    <mergeCell ref="G131:K131"/>
-    <mergeCell ref="L131:P131"/>
-    <mergeCell ref="B125:P125"/>
-    <mergeCell ref="A127:P127"/>
-    <mergeCell ref="B128:F128"/>
-    <mergeCell ref="G128:K128"/>
-    <mergeCell ref="L128:P128"/>
-    <mergeCell ref="B116:F116"/>
-    <mergeCell ref="G116:K116"/>
-    <mergeCell ref="L116:P116"/>
-    <mergeCell ref="B117:F117"/>
-    <mergeCell ref="G117:K117"/>
-    <mergeCell ref="L117:P117"/>
-    <mergeCell ref="B113:F113"/>
-    <mergeCell ref="G113:K113"/>
-    <mergeCell ref="L113:P113"/>
-    <mergeCell ref="B114:P114"/>
-    <mergeCell ref="B115:F115"/>
-    <mergeCell ref="G115:K115"/>
-    <mergeCell ref="L115:P115"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="G101:K101"/>
-    <mergeCell ref="L101:P101"/>
-    <mergeCell ref="B109:P109"/>
-    <mergeCell ref="A112:P112"/>
-    <mergeCell ref="B98:P98"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="G99:K99"/>
-    <mergeCell ref="L99:P99"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="G100:K100"/>
-    <mergeCell ref="L100:P100"/>
-    <mergeCell ref="B93:P93"/>
-    <mergeCell ref="A96:P96"/>
-    <mergeCell ref="B97:F97"/>
-    <mergeCell ref="G97:K97"/>
-    <mergeCell ref="L97:P97"/>
-    <mergeCell ref="B84:F84"/>
-    <mergeCell ref="G84:K84"/>
-    <mergeCell ref="L84:P84"/>
-    <mergeCell ref="B85:F85"/>
-    <mergeCell ref="G85:K85"/>
-    <mergeCell ref="L85:P85"/>
-    <mergeCell ref="B81:F81"/>
-    <mergeCell ref="G81:K81"/>
-    <mergeCell ref="L81:P81"/>
-    <mergeCell ref="B82:P82"/>
-    <mergeCell ref="B83:F83"/>
-    <mergeCell ref="G83:K83"/>
-    <mergeCell ref="L83:P83"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="G69:K69"/>
-    <mergeCell ref="L69:P69"/>
-    <mergeCell ref="B77:P77"/>
-    <mergeCell ref="A80:P80"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="G67:K67"/>
-    <mergeCell ref="L67:P67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="G68:K68"/>
-    <mergeCell ref="L68:P68"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="G54:K54"/>
+    <mergeCell ref="L54:P54"/>
+    <mergeCell ref="B62:P62"/>
+    <mergeCell ref="B51:P51"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="G52:K52"/>
+    <mergeCell ref="L52:P52"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="G53:K53"/>
+    <mergeCell ref="L53:P53"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="G50:K50"/>
+    <mergeCell ref="L50:P50"/>
+    <mergeCell ref="B35:P35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="G36:K36"/>
+    <mergeCell ref="L36:P36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="G37:K37"/>
+    <mergeCell ref="L37:P37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="G38:K38"/>
+    <mergeCell ref="L38:P38"/>
+    <mergeCell ref="B46:P46"/>
+    <mergeCell ref="A49:P49"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="L34:P34"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="L21:P21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="B30:P30"/>
+    <mergeCell ref="A33:P33"/>
     <mergeCell ref="A64:P64"/>
     <mergeCell ref="B65:F65"/>
     <mergeCell ref="G65:K65"/>
@@ -3910,47 +3872,76 @@
     <mergeCell ref="A17:P17"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="G18:K18"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="L34:P34"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="B30:P30"/>
-    <mergeCell ref="A33:P33"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="G50:K50"/>
-    <mergeCell ref="L50:P50"/>
-    <mergeCell ref="B35:P35"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="G36:K36"/>
-    <mergeCell ref="L36:P36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="G37:K37"/>
-    <mergeCell ref="L37:P37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="G38:K38"/>
-    <mergeCell ref="L38:P38"/>
-    <mergeCell ref="B46:P46"/>
-    <mergeCell ref="A49:P49"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="G54:K54"/>
-    <mergeCell ref="L54:P54"/>
-    <mergeCell ref="B62:P62"/>
-    <mergeCell ref="B51:P51"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="G52:K52"/>
-    <mergeCell ref="L52:P52"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="G53:K53"/>
-    <mergeCell ref="L53:P53"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="G69:K69"/>
+    <mergeCell ref="L69:P69"/>
+    <mergeCell ref="B77:P77"/>
+    <mergeCell ref="A80:P80"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="G67:K67"/>
+    <mergeCell ref="L67:P67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="G68:K68"/>
+    <mergeCell ref="L68:P68"/>
+    <mergeCell ref="B84:F84"/>
+    <mergeCell ref="G84:K84"/>
+    <mergeCell ref="L84:P84"/>
+    <mergeCell ref="B85:F85"/>
+    <mergeCell ref="G85:K85"/>
+    <mergeCell ref="L85:P85"/>
+    <mergeCell ref="B81:F81"/>
+    <mergeCell ref="G81:K81"/>
+    <mergeCell ref="L81:P81"/>
+    <mergeCell ref="B82:P82"/>
+    <mergeCell ref="B83:F83"/>
+    <mergeCell ref="G83:K83"/>
+    <mergeCell ref="L83:P83"/>
+    <mergeCell ref="B98:P98"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="G99:K99"/>
+    <mergeCell ref="L99:P99"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="G100:K100"/>
+    <mergeCell ref="L100:P100"/>
+    <mergeCell ref="B93:P93"/>
+    <mergeCell ref="A96:P96"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="G97:K97"/>
+    <mergeCell ref="L97:P97"/>
+    <mergeCell ref="B113:F113"/>
+    <mergeCell ref="G113:K113"/>
+    <mergeCell ref="L113:P113"/>
+    <mergeCell ref="B114:P114"/>
+    <mergeCell ref="B115:F115"/>
+    <mergeCell ref="G115:K115"/>
+    <mergeCell ref="L115:P115"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="G101:K101"/>
+    <mergeCell ref="L101:P101"/>
+    <mergeCell ref="B109:P109"/>
+    <mergeCell ref="A112:P112"/>
+    <mergeCell ref="B125:P125"/>
+    <mergeCell ref="A127:P127"/>
+    <mergeCell ref="B128:F128"/>
+    <mergeCell ref="G128:K128"/>
+    <mergeCell ref="L128:P128"/>
+    <mergeCell ref="B116:F116"/>
+    <mergeCell ref="G116:K116"/>
+    <mergeCell ref="L116:P116"/>
+    <mergeCell ref="B117:F117"/>
+    <mergeCell ref="G117:K117"/>
+    <mergeCell ref="L117:P117"/>
+    <mergeCell ref="B132:F132"/>
+    <mergeCell ref="G132:K132"/>
+    <mergeCell ref="L132:P132"/>
+    <mergeCell ref="B140:P140"/>
+    <mergeCell ref="B129:P129"/>
+    <mergeCell ref="B130:F130"/>
+    <mergeCell ref="G130:K130"/>
+    <mergeCell ref="L130:P130"/>
+    <mergeCell ref="B131:F131"/>
+    <mergeCell ref="G131:K131"/>
+    <mergeCell ref="L131:P131"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="76" orientation="portrait" r:id="rId1"/>
